--- a/public/template/excel/backup/format_laporan_operasi_2021.xlsx
+++ b/public/template/excel/backup/format_laporan_operasi_2021.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Laphar" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1481,9 +1481,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1510,6 +1507,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1960,8 +1960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A358" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="178" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="N380" sqref="N380"/>
+    <sheetView tabSelected="1" topLeftCell="A388" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="178" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="D415" sqref="D415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1975,8 +1975,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="78"/>
-      <c r="B1" s="78"/>
+      <c r="A1" s="77"/>
+      <c r="B1" s="77"/>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
@@ -1984,8 +1984,8 @@
       <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="77"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
@@ -1993,8 +1993,8 @@
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="81"/>
-      <c r="B3" s="81"/>
+      <c r="A3" s="80"/>
+      <c r="B3" s="80"/>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
@@ -2040,36 +2040,36 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="79"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
+      <c r="A8" s="78"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="80" t="s">
+      <c r="A9" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="82" t="s">
+      <c r="C9" s="81" t="s">
         <v>169</v>
       </c>
-      <c r="D9" s="83"/>
-      <c r="E9" s="84" t="s">
+      <c r="D9" s="82"/>
+      <c r="E9" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="85"/>
-      <c r="G9" s="80" t="s">
+      <c r="F9" s="84"/>
+      <c r="G9" s="79" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="80"/>
-      <c r="B10" s="80"/>
+      <c r="A10" s="79"/>
+      <c r="B10" s="79"/>
       <c r="C10" s="15">
         <v>2019</v>
       </c>
@@ -2082,7 +2082,7 @@
       <c r="F10" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="80"/>
+      <c r="G10" s="79"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
@@ -2193,9 +2193,11 @@
         <v>11</v>
       </c>
       <c r="C16" s="22">
+        <f>SUM(C14:C15)</f>
         <v>0</v>
       </c>
       <c r="D16" s="22">
+        <f>SUM(D14:D15)</f>
         <v>0</v>
       </c>
       <c r="E16" s="23">
@@ -2653,9 +2655,11 @@
         <v>31</v>
       </c>
       <c r="C36" s="22">
+        <f>SUM(C19:C35)</f>
         <v>0</v>
       </c>
       <c r="D36" s="22">
+        <f>SUM(D19:D35)</f>
         <v>0</v>
       </c>
       <c r="E36" s="23">
@@ -3092,9 +3096,11 @@
         <v>202</v>
       </c>
       <c r="C55" s="22">
+        <f>SUM(C38:C54)</f>
         <v>0</v>
       </c>
       <c r="D55" s="22">
+        <f>SUM(D38:D54)</f>
         <v>0</v>
       </c>
       <c r="E55" s="23">
@@ -3151,9 +3157,11 @@
         <v>203</v>
       </c>
       <c r="C58" s="22">
+        <f>SUM(C57)</f>
         <v>0</v>
       </c>
       <c r="D58" s="22">
+        <f>SUM(D57)</f>
         <v>0</v>
       </c>
       <c r="E58" s="23">
@@ -3256,9 +3264,11 @@
         <v>174</v>
       </c>
       <c r="C63" s="22">
+        <f>SUM(C60:C62)</f>
         <v>0</v>
       </c>
       <c r="D63" s="22">
+        <f>SUM(D60:D62)</f>
         <v>0</v>
       </c>
       <c r="E63" s="23">
@@ -3419,9 +3429,11 @@
         <v>205</v>
       </c>
       <c r="C70" s="22">
+        <f>SUM(C65:C69)</f>
         <v>0</v>
       </c>
       <c r="D70" s="22">
+        <f>SUM(D65:D69)</f>
         <v>0</v>
       </c>
       <c r="E70" s="23">
@@ -3632,9 +3644,11 @@
         <v>206</v>
       </c>
       <c r="C79" s="22">
+        <f>SUM(C72:C78)</f>
         <v>0</v>
       </c>
       <c r="D79" s="22">
+        <f>SUM(D72:D78)</f>
         <v>0</v>
       </c>
       <c r="E79" s="23">
@@ -3933,9 +3947,11 @@
         <v>206</v>
       </c>
       <c r="C92" s="22">
+        <f>SUM(C81:C91)</f>
         <v>0</v>
       </c>
       <c r="D92" s="22">
+        <f>SUM(D81:D91)</f>
         <v>0</v>
       </c>
       <c r="E92" s="23">
@@ -4219,9 +4235,11 @@
         <v>207</v>
       </c>
       <c r="C104" s="22">
+        <f>SUM(C94:C103)</f>
         <v>0</v>
       </c>
       <c r="D104" s="22">
+        <f>SUM(D94:D103)</f>
         <v>0</v>
       </c>
       <c r="E104" s="23">
@@ -4381,17 +4399,18 @@
         <v>208</v>
       </c>
       <c r="C112" s="22">
+        <f ca="1">SUM(C107:C112)</f>
         <v>0</v>
       </c>
       <c r="D112" s="22">
         <v>0</v>
       </c>
       <c r="E112" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="F112" s="24" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G112" s="6" t="s">
@@ -4507,9 +4526,11 @@
         <v>206</v>
       </c>
       <c r="C118" s="22">
+        <f>SUM(C114:C117)</f>
         <v>0</v>
       </c>
       <c r="D118" s="22">
+        <f>SUM(D114:D117)</f>
         <v>0</v>
       </c>
       <c r="E118" s="23">
@@ -4633,9 +4654,11 @@
         <v>204</v>
       </c>
       <c r="C124" s="22">
+        <f>SUM(C120:C123)</f>
         <v>0</v>
       </c>
       <c r="D124" s="22">
+        <f>SUM(D120:D123)</f>
         <v>0</v>
       </c>
       <c r="E124" s="23">
@@ -4889,9 +4912,11 @@
         <v>174</v>
       </c>
       <c r="C136" s="22">
+        <f>SUM(C133:C135)</f>
         <v>0</v>
       </c>
       <c r="D136" s="22">
+        <f>SUM(D133:D135)</f>
         <v>0</v>
       </c>
       <c r="E136" s="23">
@@ -5102,9 +5127,11 @@
         <v>209</v>
       </c>
       <c r="C145" s="22">
+        <f>SUM(C138:C144)</f>
         <v>0</v>
       </c>
       <c r="D145" s="22">
+        <f>SUM(D138:D144)</f>
         <v>0</v>
       </c>
       <c r="E145" s="23">
@@ -5403,9 +5430,11 @@
         <v>210</v>
       </c>
       <c r="C158" s="22">
+        <f>SUM(C147:C157)</f>
         <v>0</v>
       </c>
       <c r="D158" s="22">
+        <f>SUM(D147:D157)</f>
         <v>0</v>
       </c>
       <c r="E158" s="23">
@@ -5687,9 +5716,11 @@
         <v>209</v>
       </c>
       <c r="C170" s="22">
+        <f>SUM(C160:C169)</f>
         <v>0</v>
       </c>
       <c r="D170" s="22">
+        <f>SUM(D160:D169)</f>
         <v>0</v>
       </c>
       <c r="E170" s="23">
@@ -5875,9 +5906,11 @@
         <v>212</v>
       </c>
       <c r="C178" s="22">
+        <f>SUM(C172:C177)</f>
         <v>0</v>
       </c>
       <c r="D178" s="22">
+        <f>SUM(D172:D177)</f>
         <v>0</v>
       </c>
       <c r="E178" s="23">
@@ -6159,9 +6192,11 @@
         <v>211</v>
       </c>
       <c r="C190" s="22">
+        <f>SUM(C180:C189)</f>
         <v>0</v>
       </c>
       <c r="D190" s="22">
+        <f>SUM(D180:D189)</f>
         <v>0</v>
       </c>
       <c r="E190" s="23">
@@ -6372,9 +6407,11 @@
         <v>212</v>
       </c>
       <c r="C199" s="22">
+        <f>SUM(C192:C198)</f>
         <v>0</v>
       </c>
       <c r="D199" s="22">
+        <f>SUM(D192:D198)</f>
         <v>0</v>
       </c>
       <c r="E199" s="23">
@@ -6671,9 +6708,11 @@
         <v>213</v>
       </c>
       <c r="C212" s="22">
+        <f>SUM(C201:C211)</f>
         <v>0</v>
       </c>
       <c r="D212" s="22">
+        <f>SUM(D201:D211)</f>
         <v>0</v>
       </c>
       <c r="E212" s="23">
@@ -6955,9 +6994,11 @@
         <v>214</v>
       </c>
       <c r="C224" s="22">
+        <f>SUM(C214:C223)</f>
         <v>0</v>
       </c>
       <c r="D224" s="22">
+        <f>SUM(D214:D223)</f>
         <v>0</v>
       </c>
       <c r="E224" s="23">
@@ -7154,9 +7195,11 @@
         <v>215</v>
       </c>
       <c r="C233" s="22">
+        <f>SUM(C227:C232)</f>
         <v>0</v>
       </c>
       <c r="D233" s="22">
+        <f>SUM(D227:D232)</f>
         <v>0</v>
       </c>
       <c r="E233" s="23">
@@ -7292,9 +7335,11 @@
         <v>216</v>
       </c>
       <c r="C239" s="22">
+        <f>SUM(C235:C238)</f>
         <v>0</v>
       </c>
       <c r="D239" s="22">
+        <f>SUM(D235:D238)</f>
         <v>0</v>
       </c>
       <c r="E239" s="23">
@@ -7430,9 +7475,11 @@
         <v>217</v>
       </c>
       <c r="C245" s="22">
+        <f>SUM(C241:C244)</f>
         <v>0</v>
       </c>
       <c r="D245" s="22">
+        <f>SUM(D241:D244)</f>
         <v>0</v>
       </c>
       <c r="E245" s="23">
@@ -7947,9 +7994,11 @@
         <v>289</v>
       </c>
       <c r="C268" s="22">
+        <f>SUM(C247:C267)</f>
         <v>0</v>
       </c>
       <c r="D268" s="22">
+        <f>SUM(D247:D267)</f>
         <v>0</v>
       </c>
       <c r="E268" s="23">
@@ -8183,9 +8232,11 @@
         <v>218</v>
       </c>
       <c r="C278" s="22">
+        <f>SUM(C270:C277)</f>
         <v>0</v>
       </c>
       <c r="D278" s="22">
+        <f>SUM(D270:D277)</f>
         <v>0</v>
       </c>
       <c r="E278" s="23">
@@ -9404,9 +9455,11 @@
         <v>11</v>
       </c>
       <c r="C333" s="22">
+        <f>SUM(C329:C332)</f>
         <v>0</v>
       </c>
       <c r="D333" s="22">
+        <f>SUM(D329:D332)</f>
         <v>0</v>
       </c>
       <c r="E333" s="23">
@@ -9602,9 +9655,11 @@
         <v>292</v>
       </c>
       <c r="C343" s="22">
+        <f>SUM(C337:C342)</f>
         <v>0</v>
       </c>
       <c r="D343" s="22">
+        <f>SUM(D337:D342)</f>
         <v>0</v>
       </c>
       <c r="E343" s="23">
@@ -9728,9 +9783,11 @@
         <v>292</v>
       </c>
       <c r="C349" s="22">
+        <f>SUM(C345:C348)</f>
         <v>0</v>
       </c>
       <c r="D349" s="22">
+        <f>SUM(D345:D348)</f>
         <v>0</v>
       </c>
       <c r="E349" s="23">
@@ -9854,9 +9911,11 @@
         <v>11</v>
       </c>
       <c r="C355" s="22">
+        <f>SUM(C351:C354)</f>
         <v>0</v>
       </c>
       <c r="D355" s="22">
+        <f>SUM(D351:D354)</f>
         <v>0</v>
       </c>
       <c r="E355" s="23">
@@ -10049,9 +10108,11 @@
         <v>11</v>
       </c>
       <c r="C364" s="22">
+        <f>SUM(C357:C363)</f>
         <v>0</v>
       </c>
       <c r="D364" s="22">
+        <f>SUM(D357:D363)</f>
         <v>0</v>
       </c>
       <c r="E364" s="23">
@@ -10190,9 +10251,11 @@
         <v>11</v>
       </c>
       <c r="C371" s="22">
+        <f>SUM(C367:C370)</f>
         <v>0</v>
       </c>
       <c r="D371" s="22">
+        <f>SUM(D367:D370)</f>
         <v>0</v>
       </c>
       <c r="E371" s="23">
@@ -11099,11 +11162,11 @@
         <v>11</v>
       </c>
       <c r="C414" s="69">
-        <f t="shared" ref="C414:D414" si="45">SUM(C409:C413)</f>
+        <f>SUM(C410:C413)</f>
         <v>0</v>
       </c>
       <c r="D414" s="70">
-        <f t="shared" si="45"/>
+        <f>SUM(D410:D413)</f>
         <v>0</v>
       </c>
       <c r="E414" s="23">
@@ -11123,9 +11186,9 @@
       <c r="B415" s="8"/>
       <c r="C415" s="8"/>
       <c r="D415" s="8"/>
-      <c r="E415" s="77"/>
-      <c r="F415" s="77"/>
-      <c r="G415" s="77"/>
+      <c r="E415" s="76"/>
+      <c r="F415" s="76"/>
+      <c r="G415" s="76"/>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="8"/>
@@ -11141,10 +11204,10 @@
       <c r="B417" s="8"/>
       <c r="C417" s="13"/>
       <c r="D417" s="8"/>
-      <c r="E417" s="76" t="s">
+      <c r="E417" s="85" t="s">
         <v>284</v>
       </c>
-      <c r="F417" s="76"/>
+      <c r="F417" s="85"/>
       <c r="G417" s="8"/>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
@@ -11152,8 +11215,8 @@
       <c r="B418" s="8"/>
       <c r="C418" s="8"/>
       <c r="D418" s="8"/>
-      <c r="E418" s="76"/>
-      <c r="F418" s="76"/>
+      <c r="E418" s="85"/>
+      <c r="F418" s="85"/>
       <c r="G418" s="8"/>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
@@ -11161,10 +11224,10 @@
       <c r="B419" s="8"/>
       <c r="C419" s="13"/>
       <c r="D419" s="8"/>
-      <c r="E419" s="77" t="s">
+      <c r="E419" s="76" t="s">
         <v>285</v>
       </c>
-      <c r="F419" s="77"/>
+      <c r="F419" s="76"/>
       <c r="G419" s="8"/>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
@@ -11208,10 +11271,10 @@
       <c r="B424" s="8"/>
       <c r="C424" s="13"/>
       <c r="D424" s="8"/>
-      <c r="E424" s="76" t="s">
+      <c r="E424" s="85" t="s">
         <v>286</v>
       </c>
-      <c r="F424" s="76"/>
+      <c r="F424" s="85"/>
       <c r="G424" s="8"/>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
@@ -11219,10 +11282,10 @@
       <c r="B425" s="8"/>
       <c r="C425" s="13"/>
       <c r="D425" s="8"/>
-      <c r="E425" s="76" t="s">
+      <c r="E425" s="85" t="s">
         <v>287</v>
       </c>
-      <c r="F425" s="76"/>
+      <c r="F425" s="85"/>
       <c r="G425" s="8"/>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
@@ -11605,6 +11668,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="E418:F418"/>
+    <mergeCell ref="E419:F419"/>
+    <mergeCell ref="E424:F424"/>
+    <mergeCell ref="E425:F425"/>
+    <mergeCell ref="E417:F417"/>
     <mergeCell ref="E415:G415"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A8:G8"/>
@@ -11615,11 +11683,6 @@
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E418:F418"/>
-    <mergeCell ref="E419:F419"/>
-    <mergeCell ref="E424:F424"/>
-    <mergeCell ref="E425:F425"/>
-    <mergeCell ref="E417:F417"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/public/template/excel/backup/format_laporan_operasi_2021.xlsx
+++ b/public/template/excel/backup/format_laporan_operasi_2021.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="294">
   <si>
     <t>NO</t>
   </si>
@@ -882,18 +882,6 @@
   </si>
   <si>
     <t>Pelabuhan</t>
-  </si>
-  <si>
-    <t>Jakarta, 13 April 2021</t>
-  </si>
-  <si>
-    <t>KAPOSKO</t>
-  </si>
-  <si>
-    <t>NAMA XXXX</t>
-  </si>
-  <si>
-    <t>AKP NRP 83099999</t>
   </si>
   <si>
     <r>
@@ -948,6 +936,15 @@
   </si>
   <si>
     <t>HARI/TGL :</t>
+  </si>
+  <si>
+    <t>VII</t>
+  </si>
+  <si>
+    <t>PENYEKATAN</t>
+  </si>
+  <si>
+    <t>a. Motor</t>
   </si>
 </sst>
 </file>
@@ -1298,7 +1295,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1504,6 +1501,26 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1529,15 +1546,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1987,10 +1995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H466"/>
+  <dimension ref="A1:H472"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="178" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A398" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="178" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="G426" sqref="G426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1999,14 +2007,14 @@
     <col min="2" max="2" width="53.44140625" style="2" customWidth="1"/>
     <col min="3" max="4" width="11.77734375" style="63" customWidth="1"/>
     <col min="5" max="5" width="11.77734375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" style="63" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" style="63" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="63" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="80"/>
-      <c r="B1" s="80"/>
+      <c r="A1" s="88"/>
+      <c r="B1" s="88"/>
       <c r="C1" s="47"/>
       <c r="D1" s="47"/>
       <c r="E1" s="9"/>
@@ -2014,8 +2022,8 @@
       <c r="G1" s="47"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="80"/>
-      <c r="B2" s="80"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
       <c r="C2" s="47"/>
       <c r="D2" s="47"/>
       <c r="E2" s="9"/>
@@ -2023,8 +2031,8 @@
       <c r="G2" s="47"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="83"/>
-      <c r="B3" s="83"/>
+      <c r="A3" s="91"/>
+      <c r="B3" s="91"/>
       <c r="C3" s="47"/>
       <c r="D3" s="47"/>
       <c r="E3" s="9"/>
@@ -2050,7 +2058,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
@@ -2060,7 +2068,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="38" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C7" s="49"/>
       <c r="D7" s="49"/>
@@ -2070,36 +2078,36 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="81"/>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
+      <c r="A8" s="89"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="82" t="s">
+      <c r="A9" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="84" t="s">
+      <c r="C9" s="92" t="s">
         <v>169</v>
       </c>
-      <c r="D9" s="85"/>
-      <c r="E9" s="86" t="s">
+      <c r="D9" s="93"/>
+      <c r="E9" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="87"/>
-      <c r="G9" s="82" t="s">
+      <c r="F9" s="95"/>
+      <c r="G9" s="90" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="82"/>
-      <c r="B10" s="82"/>
+      <c r="A10" s="90"/>
+      <c r="B10" s="90"/>
       <c r="C10" s="42">
         <v>2019</v>
       </c>
@@ -2112,7 +2120,7 @@
       <c r="F10" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="82"/>
+      <c r="G10" s="90"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
@@ -2170,7 +2178,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C14" s="50">
         <v>0</v>
@@ -2182,7 +2190,7 @@
         <f>D14-C14</f>
         <v>0</v>
       </c>
-      <c r="F14" s="89" t="e">
+      <c r="F14" s="80" t="e">
         <f>SUM(D14-C14)/C14*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -2207,7 +2215,7 @@
         <f t="shared" ref="E15:E16" si="0">D15-C15</f>
         <v>0</v>
       </c>
-      <c r="F15" s="89" t="e">
+      <c r="F15" s="80" t="e">
         <f t="shared" ref="F15:F78" si="1">SUM(D15-C15)/C15*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -2234,7 +2242,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="89" t="e">
+      <c r="F16" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2252,7 +2260,7 @@
       <c r="C17" s="12"/>
       <c r="D17" s="64"/>
       <c r="E17" s="15"/>
-      <c r="F17" s="89"/>
+      <c r="F17" s="80"/>
       <c r="G17" s="67" t="s">
         <v>8</v>
       </c>
@@ -2267,7 +2275,7 @@
       <c r="C18" s="12"/>
       <c r="D18" s="64"/>
       <c r="E18" s="15"/>
-      <c r="F18" s="89"/>
+      <c r="F18" s="80"/>
       <c r="G18" s="66" t="s">
         <v>8</v>
       </c>
@@ -2289,7 +2297,7 @@
         <f t="shared" ref="E19:E35" si="2">D19-C19</f>
         <v>0</v>
       </c>
-      <c r="F19" s="89" t="e">
+      <c r="F19" s="80" t="e">
         <f>SUM(D19-C19)/C19*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -2314,7 +2322,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F20" s="89" t="e">
+      <c r="F20" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2337,7 +2345,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F21" s="89" t="e">
+      <c r="F21" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2362,7 +2370,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F22" s="89" t="e">
+      <c r="F22" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2387,7 +2395,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F23" s="89" t="e">
+      <c r="F23" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2412,7 +2420,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F24" s="89" t="e">
+      <c r="F24" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2435,7 +2443,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F25" s="89" t="e">
+      <c r="F25" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2458,7 +2466,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F26" s="89" t="e">
+      <c r="F26" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2481,7 +2489,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F27" s="89" t="e">
+      <c r="F27" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2504,7 +2512,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F28" s="89" t="e">
+      <c r="F28" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2527,7 +2535,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F29" s="89" t="e">
+      <c r="F29" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2550,7 +2558,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F30" s="89" t="e">
+      <c r="F30" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2573,7 +2581,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F31" s="89" t="e">
+      <c r="F31" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2596,7 +2604,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F32" s="89" t="e">
+      <c r="F32" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2619,7 +2627,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F33" s="89" t="e">
+      <c r="F33" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2644,7 +2652,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F34" s="89" t="e">
+      <c r="F34" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2669,7 +2677,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F35" s="89" t="e">
+      <c r="F35" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2696,7 +2704,7 @@
         <f>D36-C36</f>
         <v>0</v>
       </c>
-      <c r="F36" s="89" t="e">
+      <c r="F36" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2714,7 +2722,7 @@
       <c r="C37" s="12"/>
       <c r="D37" s="64"/>
       <c r="E37" s="15"/>
-      <c r="F37" s="89"/>
+      <c r="F37" s="80"/>
       <c r="G37" s="67"/>
     </row>
     <row r="38" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2732,7 +2740,7 @@
         <f t="shared" ref="E38:E101" si="3">D38-C38</f>
         <v>0</v>
       </c>
-      <c r="F38" s="89" t="e">
+      <c r="F38" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2755,7 +2763,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F39" s="89" t="e">
+      <c r="F39" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2778,7 +2786,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F40" s="89" t="e">
+      <c r="F40" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2801,7 +2809,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F41" s="89" t="e">
+      <c r="F41" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2824,7 +2832,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F42" s="89" t="e">
+      <c r="F42" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2847,7 +2855,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F43" s="89" t="e">
+      <c r="F43" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2870,7 +2878,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F44" s="89" t="e">
+      <c r="F44" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2893,7 +2901,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F45" s="89" t="e">
+      <c r="F45" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2916,7 +2924,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F46" s="89" t="e">
+      <c r="F46" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2939,7 +2947,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F47" s="89" t="e">
+      <c r="F47" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2962,7 +2970,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F48" s="89" t="e">
+      <c r="F48" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2987,7 +2995,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F49" s="89" t="e">
+      <c r="F49" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3012,7 +3020,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F50" s="89" t="e">
+      <c r="F50" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3037,7 +3045,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F51" s="89" t="e">
+      <c r="F51" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3062,7 +3070,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F52" s="89" t="e">
+      <c r="F52" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3087,7 +3095,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F53" s="89" t="e">
+      <c r="F53" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3110,7 +3118,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F54" s="89" t="e">
+      <c r="F54" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3137,7 +3145,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F55" s="89" t="e">
+      <c r="F55" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3153,7 +3161,7 @@
       <c r="C56" s="12"/>
       <c r="D56" s="64"/>
       <c r="E56" s="15"/>
-      <c r="F56" s="89"/>
+      <c r="F56" s="80"/>
       <c r="G56" s="67"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -3171,7 +3179,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F57" s="89" t="e">
+      <c r="F57" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3198,7 +3206,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F58" s="89" t="e">
+      <c r="F58" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3216,7 +3224,7 @@
       <c r="C59" s="50"/>
       <c r="D59" s="64"/>
       <c r="E59" s="15"/>
-      <c r="F59" s="89"/>
+      <c r="F59" s="80"/>
       <c r="G59" s="66"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -3234,7 +3242,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F60" s="89" t="e">
+      <c r="F60" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3257,7 +3265,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F61" s="89" t="e">
+      <c r="F61" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3280,7 +3288,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F62" s="89" t="e">
+      <c r="F62" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3305,7 +3313,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F63" s="89" t="e">
+      <c r="F63" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3323,7 +3331,7 @@
       <c r="C64" s="12"/>
       <c r="D64" s="64"/>
       <c r="E64" s="15"/>
-      <c r="F64" s="89"/>
+      <c r="F64" s="80"/>
       <c r="G64" s="67"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -3343,7 +3351,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F65" s="89" t="e">
+      <c r="F65" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3368,7 +3376,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F66" s="89" t="e">
+      <c r="F66" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3393,7 +3401,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F67" s="89" t="e">
+      <c r="F67" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3418,7 +3426,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F68" s="89" t="e">
+      <c r="F68" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3443,7 +3451,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F69" s="89" t="e">
+      <c r="F69" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3470,7 +3478,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F70" s="89" t="e">
+      <c r="F70" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3488,7 +3496,7 @@
       <c r="C71" s="12"/>
       <c r="D71" s="64"/>
       <c r="E71" s="15"/>
-      <c r="F71" s="89"/>
+      <c r="F71" s="80"/>
       <c r="G71" s="67"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -3508,7 +3516,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F72" s="89" t="e">
+      <c r="F72" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3533,7 +3541,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F73" s="89" t="e">
+      <c r="F73" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3558,7 +3566,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F74" s="89" t="e">
+      <c r="F74" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3583,7 +3591,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F75" s="89" t="e">
+      <c r="F75" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3608,7 +3616,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F76" s="89" t="e">
+      <c r="F76" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3633,7 +3641,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F77" s="89" t="e">
+      <c r="F77" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3658,7 +3666,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F78" s="89" t="e">
+      <c r="F78" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3685,7 +3693,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F79" s="89" t="e">
+      <c r="F79" s="80" t="e">
         <f t="shared" ref="F79:F142" si="4">SUM(D79-C79)/C79*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -3703,7 +3711,7 @@
       <c r="C80" s="12"/>
       <c r="D80" s="64"/>
       <c r="E80" s="15"/>
-      <c r="F80" s="89"/>
+      <c r="F80" s="80"/>
       <c r="G80" s="67"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -3721,7 +3729,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F81" s="89" t="e">
+      <c r="F81" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -3746,7 +3754,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F82" s="89" t="e">
+      <c r="F82" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -3771,7 +3779,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F83" s="89" t="e">
+      <c r="F83" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -3796,7 +3804,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F84" s="89" t="e">
+      <c r="F84" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -3821,7 +3829,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F85" s="89" t="e">
+      <c r="F85" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -3844,7 +3852,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F86" s="89" t="e">
+      <c r="F86" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -3867,7 +3875,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F87" s="89" t="e">
+      <c r="F87" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -3890,7 +3898,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F88" s="89" t="e">
+      <c r="F88" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -3915,7 +3923,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F89" s="89" t="e">
+      <c r="F89" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -3938,7 +3946,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F90" s="89" t="e">
+      <c r="F90" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -3961,7 +3969,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F91" s="89" t="e">
+      <c r="F91" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -3988,7 +3996,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F92" s="89" t="e">
+      <c r="F92" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4006,7 +4014,7 @@
       <c r="C93" s="12"/>
       <c r="D93" s="64"/>
       <c r="E93" s="15"/>
-      <c r="F93" s="89"/>
+      <c r="F93" s="80"/>
       <c r="G93" s="67"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -4026,7 +4034,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F94" s="89" t="e">
+      <c r="F94" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4051,7 +4059,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F95" s="89" t="e">
+      <c r="F95" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4076,7 +4084,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F96" s="89" t="e">
+      <c r="F96" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4101,7 +4109,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F97" s="89" t="e">
+      <c r="F97" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4126,7 +4134,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F98" s="89" t="e">
+      <c r="F98" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4151,7 +4159,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F99" s="89" t="e">
+      <c r="F99" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4174,7 +4182,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F100" s="89" t="e">
+      <c r="F100" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4199,7 +4207,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F101" s="89" t="e">
+      <c r="F101" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4224,7 +4232,7 @@
         <f t="shared" ref="E102:E104" si="5">D102-C102</f>
         <v>0</v>
       </c>
-      <c r="F102" s="89" t="e">
+      <c r="F102" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4249,7 +4257,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F103" s="89" t="e">
+      <c r="F103" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4276,7 +4284,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F104" s="89" t="e">
+      <c r="F104" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4294,7 +4302,7 @@
       <c r="C105" s="12"/>
       <c r="D105" s="64"/>
       <c r="E105" s="15"/>
-      <c r="F105" s="89"/>
+      <c r="F105" s="80"/>
       <c r="G105" s="67"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -4305,7 +4313,7 @@
       <c r="C106" s="12"/>
       <c r="D106" s="64"/>
       <c r="E106" s="15"/>
-      <c r="F106" s="89"/>
+      <c r="F106" s="80"/>
       <c r="G106" s="67"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -4323,7 +4331,7 @@
         <f t="shared" ref="E107:E112" si="6">D107-C107</f>
         <v>0</v>
       </c>
-      <c r="F107" s="89" t="e">
+      <c r="F107" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4346,7 +4354,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F108" s="89" t="e">
+      <c r="F108" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4369,7 +4377,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F109" s="89" t="e">
+      <c r="F109" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4392,7 +4400,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F110" s="89" t="e">
+      <c r="F110" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4415,7 +4423,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F111" s="89" t="e">
+      <c r="F111" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4439,7 +4447,7 @@
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="F112" s="89" t="e">
+      <c r="F112" s="80" t="e">
         <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4455,7 +4463,7 @@
       <c r="C113" s="50"/>
       <c r="D113" s="64"/>
       <c r="E113" s="15"/>
-      <c r="F113" s="89"/>
+      <c r="F113" s="80"/>
       <c r="G113" s="67"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -4473,7 +4481,7 @@
         <f t="shared" ref="E114:E118" si="7">D114-C114</f>
         <v>0</v>
       </c>
-      <c r="F114" s="89" t="e">
+      <c r="F114" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4496,7 +4504,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F115" s="89" t="e">
+      <c r="F115" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4519,7 +4527,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F116" s="89" t="e">
+      <c r="F116" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4542,7 +4550,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F117" s="89" t="e">
+      <c r="F117" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4567,7 +4575,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F118" s="89" t="e">
+      <c r="F118" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4583,7 +4591,7 @@
       <c r="C119" s="12"/>
       <c r="D119" s="64"/>
       <c r="E119" s="15"/>
-      <c r="F119" s="89"/>
+      <c r="F119" s="80"/>
       <c r="G119" s="67"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -4601,7 +4609,7 @@
         <f t="shared" ref="E120:E124" si="8">D120-C120</f>
         <v>0</v>
       </c>
-      <c r="F120" s="89" t="e">
+      <c r="F120" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4624,7 +4632,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F121" s="89" t="e">
+      <c r="F121" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4647,7 +4655,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F122" s="89" t="e">
+      <c r="F122" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4670,7 +4678,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F123" s="89" t="e">
+      <c r="F123" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4695,7 +4703,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F124" s="89" t="e">
+      <c r="F124" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4713,7 +4721,7 @@
       <c r="C125" s="12"/>
       <c r="D125" s="64"/>
       <c r="E125" s="15"/>
-      <c r="F125" s="89"/>
+      <c r="F125" s="80"/>
       <c r="G125" s="67"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -4726,7 +4734,7 @@
       <c r="C126" s="12"/>
       <c r="D126" s="64"/>
       <c r="E126" s="15"/>
-      <c r="F126" s="89"/>
+      <c r="F126" s="80"/>
       <c r="G126" s="67"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -4746,7 +4754,7 @@
         <f t="shared" ref="E127:E131" si="9">D127-C127</f>
         <v>0</v>
       </c>
-      <c r="F127" s="89" t="e">
+      <c r="F127" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4771,7 +4779,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F128" s="89" t="e">
+      <c r="F128" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4796,7 +4804,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F129" s="89" t="e">
+      <c r="F129" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4821,7 +4829,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F130" s="89" t="e">
+      <c r="F130" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4846,7 +4854,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F131" s="89">
+      <c r="F131" s="80">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4864,7 +4872,7 @@
       <c r="C132" s="12"/>
       <c r="D132" s="64"/>
       <c r="E132" s="15"/>
-      <c r="F132" s="89"/>
+      <c r="F132" s="80"/>
       <c r="G132" s="66"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -4882,7 +4890,7 @@
         <f t="shared" ref="E133:E136" si="10">D133-C133</f>
         <v>0</v>
       </c>
-      <c r="F133" s="89" t="e">
+      <c r="F133" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4905,7 +4913,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F134" s="89" t="e">
+      <c r="F134" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4928,7 +4936,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F135" s="89" t="e">
+      <c r="F135" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4953,7 +4961,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F136" s="89" t="e">
+      <c r="F136" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4971,7 +4979,7 @@
       <c r="C137" s="52"/>
       <c r="D137" s="64"/>
       <c r="E137" s="15"/>
-      <c r="F137" s="89"/>
+      <c r="F137" s="80"/>
       <c r="G137" s="52"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -4991,7 +4999,7 @@
         <f t="shared" ref="E138:E201" si="11">D138-C138</f>
         <v>0</v>
       </c>
-      <c r="F138" s="89" t="e">
+      <c r="F138" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -5016,7 +5024,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F139" s="89" t="e">
+      <c r="F139" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -5041,7 +5049,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F140" s="89" t="e">
+      <c r="F140" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -5066,7 +5074,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F141" s="89" t="e">
+      <c r="F141" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -5091,7 +5099,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F142" s="89" t="e">
+      <c r="F142" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -5116,7 +5124,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F143" s="89" t="e">
+      <c r="F143" s="80" t="e">
         <f t="shared" ref="F143:F206" si="12">SUM(D143-C143)/C143*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -5141,7 +5149,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F144" s="89" t="e">
+      <c r="F144" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5168,7 +5176,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F145" s="89" t="e">
+      <c r="F145" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5186,7 +5194,7 @@
       <c r="C146" s="52"/>
       <c r="D146" s="64"/>
       <c r="E146" s="15"/>
-      <c r="F146" s="89"/>
+      <c r="F146" s="80"/>
       <c r="G146" s="52"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -5204,7 +5212,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F147" s="89" t="e">
+      <c r="F147" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5227,7 +5235,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F148" s="89" t="e">
+      <c r="F148" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5250,7 +5258,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F149" s="89" t="e">
+      <c r="F149" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5273,7 +5281,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F150" s="89" t="e">
+      <c r="F150" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5296,7 +5304,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F151" s="89" t="e">
+      <c r="F151" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5319,7 +5327,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F152" s="89" t="e">
+      <c r="F152" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5344,7 +5352,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F153" s="89" t="e">
+      <c r="F153" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5369,7 +5377,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F154" s="89" t="e">
+      <c r="F154" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5394,7 +5402,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F155" s="89" t="e">
+      <c r="F155" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5419,7 +5427,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F156" s="89" t="e">
+      <c r="F156" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5444,7 +5452,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F157" s="89" t="e">
+      <c r="F157" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5471,7 +5479,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F158" s="89" t="e">
+      <c r="F158" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5489,7 +5497,7 @@
       <c r="C159" s="52"/>
       <c r="D159" s="64"/>
       <c r="E159" s="15"/>
-      <c r="F159" s="89"/>
+      <c r="F159" s="80"/>
       <c r="G159" s="52"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -5509,7 +5517,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F160" s="89" t="e">
+      <c r="F160" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5534,7 +5542,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F161" s="89" t="e">
+      <c r="F161" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5559,7 +5567,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F162" s="89" t="e">
+      <c r="F162" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5584,7 +5592,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F163" s="89" t="e">
+      <c r="F163" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5609,7 +5617,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F164" s="89" t="e">
+      <c r="F164" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5634,7 +5642,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F165" s="89" t="e">
+      <c r="F165" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5657,7 +5665,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F166" s="89" t="e">
+      <c r="F166" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5682,7 +5690,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F167" s="89" t="e">
+      <c r="F167" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5705,7 +5713,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F168" s="89" t="e">
+      <c r="F168" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5730,7 +5738,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F169" s="89" t="e">
+      <c r="F169" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5757,7 +5765,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F170" s="89" t="e">
+      <c r="F170" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5775,7 +5783,7 @@
       <c r="C171" s="12"/>
       <c r="D171" s="64"/>
       <c r="E171" s="15"/>
-      <c r="F171" s="89"/>
+      <c r="F171" s="80"/>
       <c r="G171" s="67"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -5795,7 +5803,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F172" s="89" t="e">
+      <c r="F172" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5820,7 +5828,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F173" s="89" t="e">
+      <c r="F173" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5845,7 +5853,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F174" s="89" t="e">
+      <c r="F174" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5870,7 +5878,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F175" s="89" t="e">
+      <c r="F175" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5895,7 +5903,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F176" s="89" t="e">
+      <c r="F176" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5920,7 +5928,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F177" s="89" t="e">
+      <c r="F177" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5947,7 +5955,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F178" s="89" t="e">
+      <c r="F178" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5965,7 +5973,7 @@
       <c r="C179" s="12"/>
       <c r="D179" s="64"/>
       <c r="E179" s="15"/>
-      <c r="F179" s="89"/>
+      <c r="F179" s="80"/>
       <c r="G179" s="67"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -5985,7 +5993,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F180" s="89" t="e">
+      <c r="F180" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -6010,7 +6018,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F181" s="89" t="e">
+      <c r="F181" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -6035,7 +6043,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F182" s="89" t="e">
+      <c r="F182" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -6058,7 +6066,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F183" s="89" t="e">
+      <c r="F183" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -6083,7 +6091,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F184" s="89" t="e">
+      <c r="F184" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -6108,7 +6116,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F185" s="89" t="e">
+      <c r="F185" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -6133,7 +6141,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F186" s="89" t="e">
+      <c r="F186" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -6158,7 +6166,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F187" s="89" t="e">
+      <c r="F187" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -6181,7 +6189,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F188" s="89" t="e">
+      <c r="F188" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -6206,7 +6214,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F189" s="89" t="e">
+      <c r="F189" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -6233,7 +6241,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F190" s="89" t="e">
+      <c r="F190" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -6251,7 +6259,7 @@
       <c r="C191" s="12"/>
       <c r="D191" s="64"/>
       <c r="E191" s="15"/>
-      <c r="F191" s="89"/>
+      <c r="F191" s="80"/>
       <c r="G191" s="67"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -6271,7 +6279,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F192" s="89" t="e">
+      <c r="F192" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -6296,7 +6304,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F193" s="89" t="e">
+      <c r="F193" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -6321,7 +6329,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F194" s="89" t="e">
+      <c r="F194" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -6346,7 +6354,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F195" s="89" t="e">
+      <c r="F195" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -6371,7 +6379,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F196" s="89" t="e">
+      <c r="F196" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -6396,7 +6404,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F197" s="89" t="e">
+      <c r="F197" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -6421,7 +6429,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F198" s="89" t="e">
+      <c r="F198" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -6448,7 +6456,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F199" s="89" t="e">
+      <c r="F199" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -6466,7 +6474,7 @@
       <c r="C200" s="12"/>
       <c r="D200" s="64"/>
       <c r="E200" s="15"/>
-      <c r="F200" s="89"/>
+      <c r="F200" s="80"/>
       <c r="G200" s="67"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -6484,7 +6492,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F201" s="89" t="e">
+      <c r="F201" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -6507,7 +6515,7 @@
         <f t="shared" ref="E202:E212" si="13">D202-C202</f>
         <v>0</v>
       </c>
-      <c r="F202" s="89" t="e">
+      <c r="F202" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -6530,7 +6538,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F203" s="89" t="e">
+      <c r="F203" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -6553,7 +6561,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F204" s="89" t="e">
+      <c r="F204" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -6576,7 +6584,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F205" s="89" t="e">
+      <c r="F205" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -6599,7 +6607,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F206" s="89" t="e">
+      <c r="F206" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -6622,7 +6630,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F207" s="89" t="e">
+      <c r="F207" s="80" t="e">
         <f t="shared" ref="F207:F268" si="14">SUM(D207-C207)/C207*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -6647,7 +6655,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F208" s="89" t="e">
+      <c r="F208" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -6672,7 +6680,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F209" s="89" t="e">
+      <c r="F209" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -6697,7 +6705,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F210" s="89" t="e">
+      <c r="F210" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -6722,7 +6730,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F211" s="89" t="e">
+      <c r="F211" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -6749,7 +6757,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F212" s="89" t="e">
+      <c r="F212" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -6767,7 +6775,7 @@
       <c r="C213" s="12"/>
       <c r="D213" s="64"/>
       <c r="E213" s="15"/>
-      <c r="F213" s="89"/>
+      <c r="F213" s="80"/>
       <c r="G213" s="70"/>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -6787,7 +6795,7 @@
         <f t="shared" ref="E214:E224" si="15">D214-C214</f>
         <v>0</v>
       </c>
-      <c r="F214" s="89" t="e">
+      <c r="F214" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -6812,7 +6820,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F215" s="89" t="e">
+      <c r="F215" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -6837,7 +6845,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F216" s="89" t="e">
+      <c r="F216" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -6862,7 +6870,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F217" s="89" t="e">
+      <c r="F217" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -6887,7 +6895,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F218" s="89" t="e">
+      <c r="F218" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -6912,7 +6920,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F219" s="89" t="e">
+      <c r="F219" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -6935,7 +6943,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F220" s="89" t="e">
+      <c r="F220" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -6958,7 +6966,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F221" s="89" t="e">
+      <c r="F221" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -6983,7 +6991,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F222" s="89" t="e">
+      <c r="F222" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7008,7 +7016,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F223" s="89" t="e">
+      <c r="F223" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7035,7 +7043,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F224" s="89" t="e">
+      <c r="F224" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7053,7 +7061,7 @@
       <c r="C225" s="12"/>
       <c r="D225" s="64"/>
       <c r="E225" s="15"/>
-      <c r="F225" s="89"/>
+      <c r="F225" s="80"/>
       <c r="G225" s="67"/>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
@@ -7066,7 +7074,7 @@
       <c r="C226" s="12"/>
       <c r="D226" s="64"/>
       <c r="E226" s="15"/>
-      <c r="F226" s="89"/>
+      <c r="F226" s="80"/>
       <c r="G226" s="66"/>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
@@ -7086,7 +7094,7 @@
         <f t="shared" ref="E227:E233" si="16">D227-C227</f>
         <v>0</v>
       </c>
-      <c r="F227" s="89" t="e">
+      <c r="F227" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7111,7 +7119,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F228" s="89" t="e">
+      <c r="F228" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7136,7 +7144,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F229" s="89" t="e">
+      <c r="F229" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7161,7 +7169,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F230" s="89" t="e">
+      <c r="F230" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7184,7 +7192,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F231" s="89" t="e">
+      <c r="F231" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7209,7 +7217,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F232" s="89" t="e">
+      <c r="F232" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7236,7 +7244,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F233" s="89" t="e">
+      <c r="F233" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7254,7 +7262,7 @@
       <c r="C234" s="12"/>
       <c r="D234" s="64"/>
       <c r="E234" s="15"/>
-      <c r="F234" s="89"/>
+      <c r="F234" s="80"/>
       <c r="G234" s="67"/>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
@@ -7274,7 +7282,7 @@
         <f t="shared" ref="E235:E245" si="17">D235-C235</f>
         <v>0</v>
       </c>
-      <c r="F235" s="89" t="e">
+      <c r="F235" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7299,7 +7307,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F236" s="89" t="e">
+      <c r="F236" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7324,7 +7332,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F237" s="89" t="e">
+      <c r="F237" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7349,7 +7357,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F238" s="89" t="e">
+      <c r="F238" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7376,7 +7384,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F239" s="89" t="e">
+      <c r="F239" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7394,7 +7402,7 @@
       <c r="C240" s="12"/>
       <c r="D240" s="64"/>
       <c r="E240" s="15"/>
-      <c r="F240" s="89"/>
+      <c r="F240" s="80"/>
       <c r="G240" s="67"/>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
@@ -7414,7 +7422,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F241" s="89" t="e">
+      <c r="F241" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7439,7 +7447,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F242" s="89" t="e">
+      <c r="F242" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7464,7 +7472,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F243" s="89" t="e">
+      <c r="F243" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7489,7 +7497,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F244" s="89" t="e">
+      <c r="F244" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7516,7 +7524,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F245" s="89" t="e">
+      <c r="F245" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7534,7 +7542,7 @@
       <c r="C246" s="12"/>
       <c r="D246" s="64"/>
       <c r="E246" s="15"/>
-      <c r="F246" s="89"/>
+      <c r="F246" s="80"/>
       <c r="G246" s="67"/>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
@@ -7549,7 +7557,7 @@
       </c>
       <c r="D247" s="64"/>
       <c r="E247" s="15"/>
-      <c r="F247" s="89"/>
+      <c r="F247" s="80"/>
       <c r="G247" s="66"/>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
@@ -7569,7 +7577,7 @@
         <f t="shared" ref="E248:E262" si="18">D248-C248</f>
         <v>0</v>
       </c>
-      <c r="F248" s="89" t="e">
+      <c r="F248" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7594,7 +7602,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F249" s="89" t="e">
+      <c r="F249" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7619,7 +7627,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F250" s="89" t="e">
+      <c r="F250" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7642,7 +7650,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F251" s="89" t="e">
+      <c r="F251" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7665,7 +7673,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F252" s="89" t="e">
+      <c r="F252" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7688,7 +7696,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F253" s="89" t="e">
+      <c r="F253" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7711,7 +7719,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F254" s="89" t="e">
+      <c r="F254" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7734,7 +7742,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F255" s="89" t="e">
+      <c r="F255" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7757,7 +7765,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F256" s="89" t="e">
+      <c r="F256" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7780,7 +7788,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F257" s="89" t="e">
+      <c r="F257" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7803,7 +7811,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F258" s="89" t="e">
+      <c r="F258" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7828,7 +7836,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F259" s="89" t="e">
+      <c r="F259" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7853,7 +7861,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F260" s="89" t="e">
+      <c r="F260" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7878,7 +7886,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F261" s="89" t="e">
+      <c r="F261" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7903,7 +7911,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F262" s="89" t="e">
+      <c r="F262" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7923,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="E263" s="15"/>
-      <c r="F263" s="89"/>
+      <c r="F263" s="80"/>
       <c r="G263" s="66"/>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
@@ -7941,7 +7949,7 @@
         <f t="shared" ref="E264:E268" si="19">D264-C264</f>
         <v>0</v>
       </c>
-      <c r="F264" s="89" t="e">
+      <c r="F264" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7964,7 +7972,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="F265" s="89" t="e">
+      <c r="F265" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7987,7 +7995,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="F266" s="89" t="e">
+      <c r="F266" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -8010,7 +8018,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="F267" s="89" t="e">
+      <c r="F267" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -8021,7 +8029,7 @@
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="14"/>
       <c r="B268" s="4" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C268" s="50">
         <f>SUM(C247:C267)</f>
@@ -8035,7 +8043,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="F268" s="89" t="e">
+      <c r="F268" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -8053,7 +8061,7 @@
       <c r="C269" s="12"/>
       <c r="D269" s="64"/>
       <c r="E269" s="15"/>
-      <c r="F269" s="89"/>
+      <c r="F269" s="80"/>
       <c r="G269" s="67"/>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
@@ -8073,7 +8081,7 @@
         <f t="shared" ref="E270:E278" si="20">D270-C270</f>
         <v>0</v>
       </c>
-      <c r="F270" s="89" t="e">
+      <c r="F270" s="80" t="e">
         <f t="shared" ref="F270:F333" si="21">SUM(D270-C270)/C270*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -8098,7 +8106,7 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="F271" s="89" t="e">
+      <c r="F271" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8123,7 +8131,7 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="F272" s="89" t="e">
+      <c r="F272" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8148,7 +8156,7 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="F273" s="89" t="e">
+      <c r="F273" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8173,7 +8181,7 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="F274" s="89" t="e">
+      <c r="F274" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8198,7 +8206,7 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="F275" s="89" t="e">
+      <c r="F275" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8223,7 +8231,7 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="F276" s="89" t="e">
+      <c r="F276" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8246,7 +8254,7 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="F277" s="89" t="e">
+      <c r="F277" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8273,7 +8281,7 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="F278" s="89" t="e">
+      <c r="F278" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8291,7 +8299,7 @@
       <c r="C279" s="12"/>
       <c r="D279" s="64"/>
       <c r="E279" s="15"/>
-      <c r="F279" s="89"/>
+      <c r="F279" s="80"/>
       <c r="G279" s="67"/>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
@@ -8311,7 +8319,7 @@
         <f t="shared" ref="E280:E284" si="22">D280-C280</f>
         <v>0</v>
       </c>
-      <c r="F280" s="89" t="e">
+      <c r="F280" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8336,7 +8344,7 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="F281" s="89" t="e">
+      <c r="F281" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8361,7 +8369,7 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="F282" s="89" t="e">
+      <c r="F282" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8386,7 +8394,7 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="F283" s="89" t="e">
+      <c r="F283" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8411,7 +8419,7 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="F284" s="89" t="e">
+      <c r="F284" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8429,7 +8437,7 @@
       <c r="C285" s="12"/>
       <c r="D285" s="64"/>
       <c r="E285" s="15"/>
-      <c r="F285" s="89"/>
+      <c r="F285" s="80"/>
       <c r="G285" s="67"/>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
@@ -8437,7 +8445,7 @@
         <v>8</v>
       </c>
       <c r="B286" s="14" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C286" s="50">
         <v>0</v>
@@ -8449,7 +8457,7 @@
         <f t="shared" ref="E286:E290" si="23">D286-C286</f>
         <v>0</v>
       </c>
-      <c r="F286" s="89" t="e">
+      <c r="F286" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8474,7 +8482,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="F287" s="89" t="e">
+      <c r="F287" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8497,7 +8505,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="F288" s="89" t="e">
+      <c r="F288" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8522,7 +8530,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="F289" s="89" t="e">
+      <c r="F289" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8547,7 +8555,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="F290" s="89" t="e">
+      <c r="F290" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8565,7 +8573,7 @@
       <c r="C291" s="12"/>
       <c r="D291" s="64"/>
       <c r="E291" s="15"/>
-      <c r="F291" s="89"/>
+      <c r="F291" s="80"/>
       <c r="G291" s="67"/>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
@@ -8583,7 +8591,7 @@
         <f t="shared" ref="E292:E296" si="24">D292-C292</f>
         <v>0</v>
       </c>
-      <c r="F292" s="89" t="e">
+      <c r="F292" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8606,7 +8614,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="F293" s="89" t="e">
+      <c r="F293" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8629,7 +8637,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="F294" s="89" t="e">
+      <c r="F294" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8652,7 +8660,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="F295" s="89" t="e">
+      <c r="F295" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8675,7 +8683,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="F296" s="89" t="e">
+      <c r="F296" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8693,7 +8701,7 @@
       <c r="C297" s="12"/>
       <c r="D297" s="64"/>
       <c r="E297" s="15"/>
-      <c r="F297" s="89"/>
+      <c r="F297" s="80"/>
       <c r="G297" s="67"/>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
@@ -8713,7 +8721,7 @@
         <f t="shared" ref="E298:E302" si="25">D298-C298</f>
         <v>0</v>
       </c>
-      <c r="F298" s="89" t="e">
+      <c r="F298" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8738,7 +8746,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="F299" s="89" t="e">
+      <c r="F299" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8763,7 +8771,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="F300" s="89" t="e">
+      <c r="F300" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8788,7 +8796,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="F301" s="89" t="e">
+      <c r="F301" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8813,7 +8821,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="F302" s="89" t="e">
+      <c r="F302" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8831,7 +8839,7 @@
       <c r="C303" s="52"/>
       <c r="D303" s="64"/>
       <c r="E303" s="15"/>
-      <c r="F303" s="89"/>
+      <c r="F303" s="80"/>
       <c r="G303" s="52"/>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
@@ -8849,7 +8857,7 @@
         <f t="shared" ref="E304:E308" si="26">D304-C304</f>
         <v>0</v>
       </c>
-      <c r="F304" s="89" t="e">
+      <c r="F304" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8872,7 +8880,7 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="F305" s="89" t="e">
+      <c r="F305" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8895,7 +8903,7 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="F306" s="89" t="e">
+      <c r="F306" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8918,7 +8926,7 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="F307" s="89" t="e">
+      <c r="F307" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8941,7 +8949,7 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="F308" s="89" t="e">
+      <c r="F308" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8959,7 +8967,7 @@
       <c r="C309" s="52"/>
       <c r="D309" s="64"/>
       <c r="E309" s="15"/>
-      <c r="F309" s="89"/>
+      <c r="F309" s="80"/>
       <c r="G309" s="52"/>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
@@ -8977,7 +8985,7 @@
         <f t="shared" ref="E310:E314" si="27">D310-C310</f>
         <v>0</v>
       </c>
-      <c r="F310" s="89" t="e">
+      <c r="F310" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -9000,7 +9008,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="F311" s="89" t="e">
+      <c r="F311" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -9023,7 +9031,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="F312" s="89" t="e">
+      <c r="F312" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -9046,7 +9054,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="F313" s="89" t="e">
+      <c r="F313" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -9069,7 +9077,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="F314" s="89" t="e">
+      <c r="F314" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -9082,12 +9090,12 @@
         <v>28</v>
       </c>
       <c r="B315" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C315" s="52"/>
       <c r="D315" s="64"/>
       <c r="E315" s="15"/>
-      <c r="F315" s="89"/>
+      <c r="F315" s="80"/>
       <c r="G315" s="52"/>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
@@ -9105,7 +9113,7 @@
         <f t="shared" ref="E316:E320" si="28">D316-C316</f>
         <v>0</v>
       </c>
-      <c r="F316" s="89" t="e">
+      <c r="F316" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -9128,7 +9136,7 @@
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="F317" s="89" t="e">
+      <c r="F317" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -9151,7 +9159,7 @@
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="F318" s="89" t="e">
+      <c r="F318" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -9174,7 +9182,7 @@
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="F319" s="89" t="e">
+      <c r="F319" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -9197,7 +9205,7 @@
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="F320" s="89" t="e">
+      <c r="F320" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -9219,7 +9227,7 @@
         <v>0</v>
       </c>
       <c r="E321" s="15"/>
-      <c r="F321" s="89"/>
+      <c r="F321" s="80"/>
       <c r="G321" s="67"/>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
@@ -9237,7 +9245,7 @@
         <f t="shared" ref="E322:E328" si="29">D322-C322</f>
         <v>0</v>
       </c>
-      <c r="F322" s="89" t="e">
+      <c r="F322" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -9262,7 +9270,7 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="F323" s="89" t="e">
+      <c r="F323" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -9287,7 +9295,7 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="F324" s="89" t="e">
+      <c r="F324" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -9312,7 +9320,7 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="F325" s="89" t="e">
+      <c r="F325" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -9337,7 +9345,7 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="F326" s="89" t="e">
+      <c r="F326" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -9362,7 +9370,7 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="F327" s="89" t="e">
+      <c r="F327" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -9385,7 +9393,7 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="F328" s="89" t="e">
+      <c r="F328" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -9407,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="E329" s="15"/>
-      <c r="F329" s="89"/>
+      <c r="F329" s="80"/>
       <c r="G329" s="66"/>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
@@ -9425,7 +9433,7 @@
         <f t="shared" ref="E330:E333" si="30">D330-C330</f>
         <v>0</v>
       </c>
-      <c r="F330" s="89" t="e">
+      <c r="F330" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -9448,7 +9456,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="F331" s="89" t="e">
+      <c r="F331" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -9471,7 +9479,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="F332" s="89" t="e">
+      <c r="F332" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -9496,7 +9504,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="F333" s="89" t="e">
+      <c r="F333" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -9514,7 +9522,7 @@
       <c r="C334" s="53"/>
       <c r="D334" s="64"/>
       <c r="E334" s="15"/>
-      <c r="F334" s="89"/>
+      <c r="F334" s="80"/>
       <c r="G334" s="66"/>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
@@ -9527,7 +9535,7 @@
       <c r="C335" s="54"/>
       <c r="D335" s="64"/>
       <c r="E335" s="15"/>
-      <c r="F335" s="89"/>
+      <c r="F335" s="80"/>
       <c r="G335" s="66"/>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
@@ -9538,7 +9546,7 @@
       <c r="C336" s="55"/>
       <c r="D336" s="64"/>
       <c r="E336" s="15"/>
-      <c r="F336" s="89"/>
+      <c r="F336" s="80"/>
       <c r="G336" s="66"/>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
@@ -9556,7 +9564,7 @@
         <f t="shared" ref="E337:E343" si="31">D337-C337</f>
         <v>0</v>
       </c>
-      <c r="F337" s="89" t="e">
+      <c r="F337" s="80" t="e">
         <f t="shared" ref="F337:F398" si="32">SUM(D337-C337)/C337*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -9579,7 +9587,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="F338" s="89" t="e">
+      <c r="F338" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -9602,7 +9610,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="F339" s="89" t="e">
+      <c r="F339" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -9625,7 +9633,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="F340" s="89" t="e">
+      <c r="F340" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -9648,7 +9656,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="F341" s="89" t="e">
+      <c r="F341" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -9671,7 +9679,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="F342" s="89" t="e">
+      <c r="F342" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -9682,7 +9690,7 @@
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="14"/>
       <c r="B343" s="26" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C343" s="50">
         <f>SUM(C337:C342)</f>
@@ -9696,7 +9704,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="F343" s="89" t="e">
+      <c r="F343" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -9712,7 +9720,7 @@
       <c r="C344" s="55"/>
       <c r="D344" s="64"/>
       <c r="E344" s="15"/>
-      <c r="F344" s="89"/>
+      <c r="F344" s="80"/>
       <c r="G344" s="66"/>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
@@ -9730,7 +9738,7 @@
         <f t="shared" ref="E345:E349" si="33">D345-C345</f>
         <v>0</v>
       </c>
-      <c r="F345" s="89" t="e">
+      <c r="F345" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -9753,7 +9761,7 @@
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="F346" s="89" t="e">
+      <c r="F346" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -9776,7 +9784,7 @@
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="F347" s="89" t="e">
+      <c r="F347" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -9799,7 +9807,7 @@
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="F348" s="89" t="e">
+      <c r="F348" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -9810,7 +9818,7 @@
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="14"/>
       <c r="B349" s="26" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C349" s="50">
         <f>SUM(C345:C348)</f>
@@ -9824,7 +9832,7 @@
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="F349" s="89" t="e">
+      <c r="F349" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -9840,7 +9848,7 @@
       <c r="C350" s="56"/>
       <c r="D350" s="64"/>
       <c r="E350" s="15"/>
-      <c r="F350" s="89"/>
+      <c r="F350" s="80"/>
       <c r="G350" s="71"/>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
@@ -9858,7 +9866,7 @@
         <f t="shared" ref="E351:E355" si="34">D351-C351</f>
         <v>0</v>
       </c>
-      <c r="F351" s="89" t="e">
+      <c r="F351" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -9881,7 +9889,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="F352" s="89" t="e">
+      <c r="F352" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -9904,7 +9912,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="F353" s="89" t="e">
+      <c r="F353" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -9927,7 +9935,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="F354" s="89" t="e">
+      <c r="F354" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -9952,7 +9960,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="F355" s="89" t="e">
+      <c r="F355" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -9968,7 +9976,7 @@
       <c r="C356" s="55"/>
       <c r="D356" s="64"/>
       <c r="E356" s="15"/>
-      <c r="F356" s="89"/>
+      <c r="F356" s="80"/>
       <c r="G356" s="66"/>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
@@ -9986,7 +9994,7 @@
         <f t="shared" ref="E357:E364" si="35">D357-C357</f>
         <v>0</v>
       </c>
-      <c r="F357" s="89" t="e">
+      <c r="F357" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10009,7 +10017,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="F358" s="89" t="e">
+      <c r="F358" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10032,7 +10040,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="F359" s="89" t="e">
+      <c r="F359" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10055,7 +10063,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="F360" s="89" t="e">
+      <c r="F360" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10078,7 +10086,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="F361" s="89" t="e">
+      <c r="F361" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10101,7 +10109,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="F362" s="89" t="e">
+      <c r="F362" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10124,7 +10132,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="F363" s="89" t="e">
+      <c r="F363" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10149,7 +10157,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="F364" s="89" t="e">
+      <c r="F364" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10167,7 +10175,7 @@
       <c r="C365" s="54"/>
       <c r="D365" s="64"/>
       <c r="E365" s="15"/>
-      <c r="F365" s="89"/>
+      <c r="F365" s="80"/>
       <c r="G365" s="54"/>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
@@ -10180,7 +10188,7 @@
       <c r="C366" s="54"/>
       <c r="D366" s="50"/>
       <c r="E366" s="15"/>
-      <c r="F366" s="89"/>
+      <c r="F366" s="80"/>
       <c r="G366" s="66"/>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
@@ -10198,7 +10206,7 @@
         <f t="shared" ref="E367:E371" si="36">D367-C367</f>
         <v>0</v>
       </c>
-      <c r="F367" s="89" t="e">
+      <c r="F367" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10221,7 +10229,7 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="F368" s="89" t="e">
+      <c r="F368" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10244,7 +10252,7 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="F369" s="89" t="e">
+      <c r="F369" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10267,7 +10275,7 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="F370" s="89" t="e">
+      <c r="F370" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10292,7 +10300,7 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="F371" s="89" t="e">
+      <c r="F371" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10310,7 +10318,7 @@
       <c r="C372" s="57"/>
       <c r="D372" s="64"/>
       <c r="E372" s="15"/>
-      <c r="F372" s="89"/>
+      <c r="F372" s="80"/>
       <c r="G372" s="66"/>
     </row>
     <row r="373" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -10323,7 +10331,7 @@
       <c r="C373" s="58"/>
       <c r="D373" s="64"/>
       <c r="E373" s="15"/>
-      <c r="F373" s="89"/>
+      <c r="F373" s="80"/>
       <c r="G373" s="66"/>
     </row>
     <row r="374" spans="1:7" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10336,7 +10344,7 @@
       <c r="C374" s="59"/>
       <c r="D374" s="64"/>
       <c r="E374" s="15"/>
-      <c r="F374" s="89"/>
+      <c r="F374" s="80"/>
       <c r="G374" s="66"/>
     </row>
     <row r="375" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -10354,7 +10362,7 @@
         <f t="shared" ref="E375:E383" si="37">D375-C375</f>
         <v>0</v>
       </c>
-      <c r="F375" s="89" t="e">
+      <c r="F375" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10377,7 +10385,7 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="F376" s="89" t="e">
+      <c r="F376" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10400,7 +10408,7 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="F377" s="89" t="e">
+      <c r="F377" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10423,7 +10431,7 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="F378" s="89" t="e">
+      <c r="F378" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10446,7 +10454,7 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="F379" s="89" t="e">
+      <c r="F379" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10469,7 +10477,7 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="F380" s="89" t="e">
+      <c r="F380" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10492,7 +10500,7 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="F381" s="89" t="e">
+      <c r="F381" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10515,7 +10523,7 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="F382" s="89" t="e">
+      <c r="F382" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10538,7 +10546,7 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="F383" s="89" t="e">
+      <c r="F383" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10556,7 +10564,7 @@
       <c r="C384" s="60"/>
       <c r="D384" s="64"/>
       <c r="E384" s="15"/>
-      <c r="F384" s="89"/>
+      <c r="F384" s="80"/>
       <c r="G384" s="75"/>
     </row>
     <row r="385" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -10574,7 +10582,7 @@
         <f t="shared" ref="E385:E387" si="38">D385-C385</f>
         <v>0</v>
       </c>
-      <c r="F385" s="89" t="e">
+      <c r="F385" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10597,7 +10605,7 @@
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="F386" s="89" t="e">
+      <c r="F386" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10620,7 +10628,7 @@
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="F387" s="89" t="e">
+      <c r="F387" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10638,7 +10646,7 @@
       <c r="C388" s="60"/>
       <c r="D388" s="50"/>
       <c r="E388" s="15"/>
-      <c r="F388" s="89"/>
+      <c r="F388" s="80"/>
       <c r="G388" s="76"/>
     </row>
     <row r="389" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -10656,7 +10664,7 @@
         <f t="shared" ref="E389:E401" si="39">D389-C389</f>
         <v>0</v>
       </c>
-      <c r="F389" s="89" t="e">
+      <c r="F389" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10679,7 +10687,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F390" s="89" t="e">
+      <c r="F390" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10702,7 +10710,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F391" s="89" t="e">
+      <c r="F391" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10725,7 +10733,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F392" s="89" t="e">
+      <c r="F392" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10748,7 +10756,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F393" s="89" t="e">
+      <c r="F393" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10771,7 +10779,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F394" s="89" t="e">
+      <c r="F394" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10794,7 +10802,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F395" s="89" t="e">
+      <c r="F395" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10817,7 +10825,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F396" s="89" t="e">
+      <c r="F396" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10840,7 +10848,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F397" s="89" t="e">
+      <c r="F397" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10863,7 +10871,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F398" s="89" t="e">
+      <c r="F398" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10886,7 +10894,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F399" s="89" t="e">
+      <c r="F399" s="80" t="e">
         <f t="shared" ref="F399:F407" si="40">SUM(D399-C399)/C399*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -10909,7 +10917,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F400" s="89" t="e">
+      <c r="F400" s="80" t="e">
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
@@ -10932,7 +10940,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F401" s="89" t="e">
+      <c r="F401" s="80" t="e">
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
@@ -10950,7 +10958,7 @@
       <c r="C402" s="60"/>
       <c r="D402" s="64"/>
       <c r="E402" s="15"/>
-      <c r="F402" s="89"/>
+      <c r="F402" s="80"/>
       <c r="G402" s="76"/>
     </row>
     <row r="403" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -10968,7 +10976,7 @@
         <f t="shared" ref="E403:E407" si="41">D403-C403</f>
         <v>0</v>
       </c>
-      <c r="F403" s="89" t="e">
+      <c r="F403" s="80" t="e">
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
@@ -10991,7 +10999,7 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="F404" s="89" t="e">
+      <c r="F404" s="80" t="e">
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
@@ -11014,7 +11022,7 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="F405" s="89" t="e">
+      <c r="F405" s="80" t="e">
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
@@ -11037,7 +11045,7 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="F406" s="89" t="e">
+      <c r="F406" s="80" t="e">
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
@@ -11060,7 +11068,7 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="F407" s="89" t="e">
+      <c r="F407" s="80" t="e">
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
@@ -11078,7 +11086,7 @@
       <c r="C408" s="57"/>
       <c r="D408" s="64"/>
       <c r="E408" s="15"/>
-      <c r="F408" s="89"/>
+      <c r="F408" s="80"/>
       <c r="G408" s="66"/>
     </row>
     <row r="409" spans="1:7" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -11091,7 +11099,7 @@
       <c r="C409" s="58"/>
       <c r="D409" s="64"/>
       <c r="E409" s="15"/>
-      <c r="F409" s="89"/>
+      <c r="F409" s="80"/>
       <c r="G409" s="66"/>
     </row>
     <row r="410" spans="1:7" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -11109,7 +11117,7 @@
         <f t="shared" ref="E410:E414" si="42">D410-C410</f>
         <v>0</v>
       </c>
-      <c r="F410" s="89" t="e">
+      <c r="F410" s="80" t="e">
         <f t="shared" ref="F410:F412" si="43">SUM(D410-C410)/C410*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -11132,7 +11140,7 @@
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="F411" s="89" t="e">
+      <c r="F411" s="80" t="e">
         <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
@@ -11155,7 +11163,7 @@
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="F412" s="89" t="e">
+      <c r="F412" s="80" t="e">
         <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
@@ -11178,7 +11186,7 @@
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="F413" s="89" t="e">
+      <c r="F413" s="80" t="e">
         <f t="shared" ref="F413" si="44">SUM(D413-C413)/C413*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -11203,7 +11211,7 @@
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="F414" s="90" t="e">
+      <c r="F414" s="81" t="e">
         <f>SUM(D414-C414)/C414*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -11211,77 +11219,163 @@
         <v>107</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A415" s="6"/>
-      <c r="B415" s="6"/>
-      <c r="C415" s="43"/>
-      <c r="D415" s="43"/>
-      <c r="E415" s="79"/>
-      <c r="F415" s="79"/>
-      <c r="G415" s="79"/>
-    </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A416" s="6"/>
-      <c r="B416" s="6"/>
-      <c r="C416" s="43"/>
-      <c r="D416" s="43"/>
-      <c r="E416" s="6"/>
-      <c r="F416" s="44"/>
-      <c r="G416" s="43"/>
-    </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A417" s="6"/>
-      <c r="B417" s="6"/>
-      <c r="C417" s="62"/>
-      <c r="D417" s="43"/>
-      <c r="E417" s="88" t="s">
-        <v>284</v>
-      </c>
-      <c r="F417" s="88"/>
-      <c r="G417" s="43"/>
-    </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A418" s="6"/>
-      <c r="B418" s="6"/>
-      <c r="C418" s="43"/>
-      <c r="D418" s="43"/>
-      <c r="E418" s="88"/>
-      <c r="F418" s="88"/>
-      <c r="G418" s="43"/>
-    </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A419" s="6"/>
-      <c r="B419" s="6"/>
-      <c r="C419" s="62"/>
-      <c r="D419" s="43"/>
-      <c r="E419" s="79" t="s">
-        <v>285</v>
-      </c>
-      <c r="F419" s="79"/>
-      <c r="G419" s="43"/>
-    </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A420" s="6"/>
-      <c r="B420" s="6"/>
-      <c r="C420" s="62"/>
-      <c r="D420" s="43"/>
-      <c r="E420" s="6"/>
-      <c r="F420" s="44"/>
-      <c r="G420" s="43"/>
+    <row r="415" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A415" s="79" t="s">
+        <v>291</v>
+      </c>
+      <c r="B415" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="C415" s="84"/>
+      <c r="D415" s="65"/>
+      <c r="E415" s="15"/>
+      <c r="F415" s="81"/>
+      <c r="G415" s="78"/>
+    </row>
+    <row r="416" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A416" s="37"/>
+      <c r="B416" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="C416" s="84">
+        <v>0</v>
+      </c>
+      <c r="D416" s="65">
+        <v>0</v>
+      </c>
+      <c r="E416" s="15">
+        <f>D416-C416</f>
+        <v>0</v>
+      </c>
+      <c r="F416" s="81" t="e">
+        <f t="shared" ref="F416:F421" si="45">SUM(D416-C416)/C416*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G416" s="78" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A417" s="37"/>
+      <c r="B417" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C417" s="84">
+        <v>0</v>
+      </c>
+      <c r="D417" s="65">
+        <v>0</v>
+      </c>
+      <c r="E417" s="15">
+        <f t="shared" ref="E417:E421" si="46">D417-C417</f>
+        <v>0</v>
+      </c>
+      <c r="F417" s="81" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G417" s="78" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A418" s="37"/>
+      <c r="B418" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C418" s="84">
+        <v>0</v>
+      </c>
+      <c r="D418" s="65">
+        <v>0</v>
+      </c>
+      <c r="E418" s="15">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="F418" s="81" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G418" s="78" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A419" s="37"/>
+      <c r="B419" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C419" s="84">
+        <v>0</v>
+      </c>
+      <c r="D419" s="65">
+        <v>0</v>
+      </c>
+      <c r="E419" s="15">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="F419" s="81" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G419" s="78" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A420" s="37"/>
+      <c r="B420" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C420" s="84">
+        <v>0</v>
+      </c>
+      <c r="D420" s="65">
+        <v>0</v>
+      </c>
+      <c r="E420" s="15">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="F420" s="81" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G420" s="78" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A421" s="6"/>
-      <c r="B421" s="6"/>
-      <c r="C421" s="62"/>
-      <c r="D421" s="43"/>
-      <c r="E421" s="6"/>
-      <c r="F421" s="44"/>
-      <c r="G421" s="43"/>
+      <c r="A421" s="82"/>
+      <c r="B421" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="C421" s="83">
+        <f>SUM(C416:C420)</f>
+        <v>0</v>
+      </c>
+      <c r="D421" s="83">
+        <f>SUM(D416:D420)</f>
+        <v>0</v>
+      </c>
+      <c r="E421" s="15">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="F421" s="81" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G421" s="78" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="6"/>
       <c r="B422" s="6"/>
-      <c r="C422" s="62"/>
+      <c r="C422" s="43"/>
       <c r="D422" s="43"/>
       <c r="E422" s="6"/>
       <c r="F422" s="44"/>
@@ -11292,19 +11386,17 @@
       <c r="B423" s="6"/>
       <c r="C423" s="62"/>
       <c r="D423" s="43"/>
-      <c r="E423" s="6"/>
-      <c r="F423" s="44"/>
+      <c r="E423" s="86"/>
+      <c r="F423" s="86"/>
       <c r="G423" s="43"/>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="6"/>
       <c r="B424" s="6"/>
-      <c r="C424" s="62"/>
+      <c r="C424" s="43"/>
       <c r="D424" s="43"/>
-      <c r="E424" s="88" t="s">
-        <v>286</v>
-      </c>
-      <c r="F424" s="88"/>
+      <c r="E424" s="86"/>
+      <c r="F424" s="86"/>
       <c r="G424" s="43"/>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
@@ -11312,16 +11404,14 @@
       <c r="B425" s="6"/>
       <c r="C425" s="62"/>
       <c r="D425" s="43"/>
-      <c r="E425" s="88" t="s">
-        <v>287</v>
-      </c>
-      <c r="F425" s="88"/>
+      <c r="E425" s="87"/>
+      <c r="F425" s="87"/>
       <c r="G425" s="43"/>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="6"/>
       <c r="B426" s="6"/>
-      <c r="C426" s="43"/>
+      <c r="C426" s="62"/>
       <c r="D426" s="43"/>
       <c r="E426" s="6"/>
       <c r="F426" s="44"/>
@@ -11330,7 +11420,7 @@
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="6"/>
       <c r="B427" s="6"/>
-      <c r="C427" s="43"/>
+      <c r="C427" s="62"/>
       <c r="D427" s="43"/>
       <c r="E427" s="6"/>
       <c r="F427" s="44"/>
@@ -11339,7 +11429,7 @@
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="6"/>
       <c r="B428" s="6"/>
-      <c r="C428" s="43"/>
+      <c r="C428" s="62"/>
       <c r="D428" s="43"/>
       <c r="E428" s="6"/>
       <c r="F428" s="44"/>
@@ -11348,7 +11438,7 @@
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="6"/>
       <c r="B429" s="6"/>
-      <c r="C429" s="43"/>
+      <c r="C429" s="62"/>
       <c r="D429" s="43"/>
       <c r="E429" s="6"/>
       <c r="F429" s="44"/>
@@ -11357,19 +11447,19 @@
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="6"/>
       <c r="B430" s="6"/>
-      <c r="C430" s="43"/>
+      <c r="C430" s="62"/>
       <c r="D430" s="43"/>
-      <c r="E430" s="6"/>
-      <c r="F430" s="44"/>
+      <c r="E430" s="86"/>
+      <c r="F430" s="86"/>
       <c r="G430" s="43"/>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="6"/>
       <c r="B431" s="6"/>
-      <c r="C431" s="43"/>
+      <c r="C431" s="62"/>
       <c r="D431" s="43"/>
-      <c r="E431" s="6"/>
-      <c r="F431" s="44"/>
+      <c r="E431" s="86"/>
+      <c r="F431" s="86"/>
       <c r="G431" s="43"/>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
@@ -11687,14 +11777,62 @@
       <c r="F466" s="44"/>
       <c r="G466" s="43"/>
     </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A467" s="6"/>
+      <c r="B467" s="6"/>
+      <c r="C467" s="43"/>
+      <c r="D467" s="43"/>
+      <c r="E467" s="6"/>
+      <c r="F467" s="44"/>
+      <c r="G467" s="43"/>
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A468" s="6"/>
+      <c r="B468" s="6"/>
+      <c r="C468" s="43"/>
+      <c r="D468" s="43"/>
+      <c r="E468" s="6"/>
+      <c r="F468" s="44"/>
+      <c r="G468" s="43"/>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A469" s="6"/>
+      <c r="B469" s="6"/>
+      <c r="C469" s="43"/>
+      <c r="D469" s="43"/>
+      <c r="E469" s="6"/>
+      <c r="F469" s="44"/>
+      <c r="G469" s="43"/>
+    </row>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A470" s="6"/>
+      <c r="B470" s="6"/>
+      <c r="C470" s="43"/>
+      <c r="D470" s="43"/>
+      <c r="E470" s="6"/>
+      <c r="F470" s="44"/>
+      <c r="G470" s="43"/>
+    </row>
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A471" s="6"/>
+      <c r="B471" s="6"/>
+      <c r="C471" s="43"/>
+      <c r="D471" s="43"/>
+      <c r="E471" s="6"/>
+      <c r="F471" s="44"/>
+      <c r="G471" s="43"/>
+    </row>
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A472" s="6"/>
+      <c r="B472" s="6"/>
+      <c r="C472" s="43"/>
+      <c r="D472" s="43"/>
+      <c r="E472" s="6"/>
+      <c r="F472" s="44"/>
+      <c r="G472" s="43"/>
+    </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="E418:F418"/>
-    <mergeCell ref="E419:F419"/>
-    <mergeCell ref="E424:F424"/>
-    <mergeCell ref="E425:F425"/>
-    <mergeCell ref="E417:F417"/>
-    <mergeCell ref="E415:G415"/>
+  <mergeCells count="14">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A9:A10"/>
@@ -11704,6 +11842,11 @@
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E424:F424"/>
+    <mergeCell ref="E425:F425"/>
+    <mergeCell ref="E430:F430"/>
+    <mergeCell ref="E431:F431"/>
+    <mergeCell ref="E423:F423"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/public/template/excel/backup/format_laporan_operasi_2021.xlsx
+++ b/public/template/excel/backup/format_laporan_operasi_2021.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="298">
   <si>
     <t>NO</t>
   </si>
@@ -945,6 +945,18 @@
   </si>
   <si>
     <t>a. Motor</t>
+  </si>
+  <si>
+    <t>GIAT RANDOM CHECK "RAPID TEST ANTI GEN"</t>
+  </si>
+  <si>
+    <t>a. Positif</t>
+  </si>
+  <si>
+    <t>b. Negatif</t>
+  </si>
+  <si>
+    <t>VIII</t>
   </si>
 </sst>
 </file>
@@ -1295,7 +1307,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1518,10 +1530,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1547,6 +1562,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1995,10 +2013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H472"/>
+  <dimension ref="A1:H469"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A398" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="178" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="G426" sqref="G426"/>
+    <sheetView tabSelected="1" topLeftCell="A407" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="178" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="E435" sqref="E435:F435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2013,8 +2031,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="88"/>
-      <c r="B1" s="88"/>
+      <c r="A1" s="89"/>
+      <c r="B1" s="89"/>
       <c r="C1" s="47"/>
       <c r="D1" s="47"/>
       <c r="E1" s="9"/>
@@ -2022,8 +2040,8 @@
       <c r="G1" s="47"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
       <c r="C2" s="47"/>
       <c r="D2" s="47"/>
       <c r="E2" s="9"/>
@@ -2031,8 +2049,8 @@
       <c r="G2" s="47"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="91"/>
-      <c r="B3" s="91"/>
+      <c r="A3" s="92"/>
+      <c r="B3" s="92"/>
       <c r="C3" s="47"/>
       <c r="D3" s="47"/>
       <c r="E3" s="9"/>
@@ -2078,36 +2096,36 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="89"/>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
+      <c r="A8" s="90"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="90" t="s">
+      <c r="A9" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="92" t="s">
+      <c r="C9" s="93" t="s">
         <v>169</v>
       </c>
-      <c r="D9" s="93"/>
-      <c r="E9" s="94" t="s">
+      <c r="D9" s="94"/>
+      <c r="E9" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="95"/>
-      <c r="G9" s="90" t="s">
+      <c r="F9" s="96"/>
+      <c r="G9" s="91" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="90"/>
-      <c r="B10" s="90"/>
+      <c r="A10" s="91"/>
+      <c r="B10" s="91"/>
       <c r="C10" s="42">
         <v>2019</v>
       </c>
@@ -2120,7 +2138,7 @@
       <c r="F10" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="90"/>
+      <c r="G10" s="91"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
@@ -11373,40 +11391,88 @@
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A422" s="6"/>
-      <c r="B422" s="6"/>
-      <c r="C422" s="43"/>
-      <c r="D422" s="43"/>
-      <c r="E422" s="6"/>
-      <c r="F422" s="44"/>
-      <c r="G422" s="43"/>
+      <c r="A422" s="86" t="s">
+        <v>297</v>
+      </c>
+      <c r="B422" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="C422" s="84"/>
+      <c r="D422" s="65"/>
+      <c r="E422" s="15"/>
+      <c r="F422" s="81"/>
+      <c r="G422" s="78"/>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A423" s="6"/>
-      <c r="B423" s="6"/>
-      <c r="C423" s="62"/>
-      <c r="D423" s="43"/>
-      <c r="E423" s="86"/>
-      <c r="F423" s="86"/>
-      <c r="G423" s="43"/>
+      <c r="A423" s="37"/>
+      <c r="B423" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="C423" s="84">
+        <v>0</v>
+      </c>
+      <c r="D423" s="65">
+        <v>0</v>
+      </c>
+      <c r="E423" s="15">
+        <f>D423-C423</f>
+        <v>0</v>
+      </c>
+      <c r="F423" s="81" t="e">
+        <f t="shared" ref="F423:F425" si="47">SUM(D423-C423)/C423*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G423" s="74" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A424" s="6"/>
-      <c r="B424" s="6"/>
-      <c r="C424" s="43"/>
-      <c r="D424" s="43"/>
-      <c r="E424" s="86"/>
-      <c r="F424" s="86"/>
-      <c r="G424" s="43"/>
+      <c r="A424" s="37"/>
+      <c r="B424" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="C424" s="84">
+        <v>0</v>
+      </c>
+      <c r="D424" s="65">
+        <v>0</v>
+      </c>
+      <c r="E424" s="15">
+        <f t="shared" ref="E424:E425" si="48">D424-C424</f>
+        <v>0</v>
+      </c>
+      <c r="F424" s="81" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G424" s="74" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A425" s="6"/>
-      <c r="B425" s="6"/>
-      <c r="C425" s="62"/>
-      <c r="D425" s="43"/>
-      <c r="E425" s="87"/>
-      <c r="F425" s="87"/>
-      <c r="G425" s="43"/>
+      <c r="A425" s="82"/>
+      <c r="B425" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="C425" s="83">
+        <f>SUM(C423:C424)</f>
+        <v>0</v>
+      </c>
+      <c r="D425" s="83">
+        <f>SUM(D423:D424)</f>
+        <v>0</v>
+      </c>
+      <c r="E425" s="15">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="F425" s="81" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G425" s="74" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="6"/>
@@ -11422,8 +11488,8 @@
       <c r="B427" s="6"/>
       <c r="C427" s="62"/>
       <c r="D427" s="43"/>
-      <c r="E427" s="6"/>
-      <c r="F427" s="44"/>
+      <c r="E427" s="87"/>
+      <c r="F427" s="87"/>
       <c r="G427" s="43"/>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
@@ -11431,35 +11497,35 @@
       <c r="B428" s="6"/>
       <c r="C428" s="62"/>
       <c r="D428" s="43"/>
-      <c r="E428" s="6"/>
-      <c r="F428" s="44"/>
+      <c r="E428" s="88"/>
+      <c r="F428" s="88"/>
       <c r="G428" s="43"/>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="6"/>
       <c r="B429" s="6"/>
-      <c r="C429" s="62"/>
+      <c r="C429" s="43"/>
       <c r="D429" s="43"/>
-      <c r="E429" s="6"/>
-      <c r="F429" s="44"/>
+      <c r="E429" s="97"/>
+      <c r="F429" s="97"/>
       <c r="G429" s="43"/>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="6"/>
       <c r="B430" s="6"/>
-      <c r="C430" s="62"/>
+      <c r="C430" s="43"/>
       <c r="D430" s="43"/>
-      <c r="E430" s="86"/>
-      <c r="F430" s="86"/>
+      <c r="E430" s="6"/>
+      <c r="F430" s="44"/>
       <c r="G430" s="43"/>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="6"/>
       <c r="B431" s="6"/>
-      <c r="C431" s="62"/>
+      <c r="C431" s="43"/>
       <c r="D431" s="43"/>
-      <c r="E431" s="86"/>
-      <c r="F431" s="86"/>
+      <c r="E431" s="6"/>
+      <c r="F431" s="44"/>
       <c r="G431" s="43"/>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
@@ -11485,8 +11551,8 @@
       <c r="B434" s="6"/>
       <c r="C434" s="43"/>
       <c r="D434" s="43"/>
-      <c r="E434" s="6"/>
-      <c r="F434" s="44"/>
+      <c r="E434" s="88"/>
+      <c r="F434" s="88"/>
       <c r="G434" s="43"/>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
@@ -11494,8 +11560,8 @@
       <c r="B435" s="6"/>
       <c r="C435" s="43"/>
       <c r="D435" s="43"/>
-      <c r="E435" s="6"/>
-      <c r="F435" s="44"/>
+      <c r="E435" s="88"/>
+      <c r="F435" s="88"/>
       <c r="G435" s="43"/>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
@@ -11804,35 +11870,13 @@
       <c r="F469" s="44"/>
       <c r="G469" s="43"/>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A470" s="6"/>
-      <c r="B470" s="6"/>
-      <c r="C470" s="43"/>
-      <c r="D470" s="43"/>
-      <c r="E470" s="6"/>
-      <c r="F470" s="44"/>
-      <c r="G470" s="43"/>
-    </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A471" s="6"/>
-      <c r="B471" s="6"/>
-      <c r="C471" s="43"/>
-      <c r="D471" s="43"/>
-      <c r="E471" s="6"/>
-      <c r="F471" s="44"/>
-      <c r="G471" s="43"/>
-    </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A472" s="6"/>
-      <c r="B472" s="6"/>
-      <c r="C472" s="43"/>
-      <c r="D472" s="43"/>
-      <c r="E472" s="6"/>
-      <c r="F472" s="44"/>
-      <c r="G472" s="43"/>
-    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="E429:F429"/>
+    <mergeCell ref="E434:F434"/>
+    <mergeCell ref="E435:F435"/>
+    <mergeCell ref="E427:F427"/>
+    <mergeCell ref="E428:F428"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A9:A10"/>
@@ -11842,11 +11886,6 @@
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E424:F424"/>
-    <mergeCell ref="E425:F425"/>
-    <mergeCell ref="E430:F430"/>
-    <mergeCell ref="E431:F431"/>
-    <mergeCell ref="E423:F423"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
